--- a/biology/Zoologie/Archiearis_notha/Archiearis_notha.xlsx
+++ b/biology/Zoologie/Archiearis_notha/Archiearis_notha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Archiearis notha, l'Illégitime ou Bréphode du tremble[1], est une espèce de lépidoptères (papillons) de la famille des Geometridae, de la sous-famille des Archiearinae et du genre Archiearis.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Archiearis notha, l'Illégitime ou Bréphode du tremble, est une espèce de lépidoptères (papillons) de la famille des Geometridae, de la sous-famille des Archiearinae et du genre Archiearis.
 Synonymie
 Archiearias notha
 Boudinotiana notha (Hubner, 1803)
@@ -517,7 +529,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Illégitime a été nommée Archiearis notha par Jakob Hübner en 1803.
 </t>
@@ -548,7 +562,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plus petit que Archiearis parthenias, l'imago d'une envergure d'environ 35 mm, montre des ailes antérieures brunes plus uniformes que celles de l'espèce proche Archiearis parthenias.
 Les ailes postérieures étalées, (de couleur orange avec un peu de brun vers le corps et une frange terminale brune) contrastent avec les antérieures, mais ne sont pas visibles quand le papillon est au repos (mimétisme oblige).
@@ -580,9 +596,11 @@
           <t>Chenille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chenille se nourrit sur le tremble, parfois aussi sur les bouleaux et le saule marsault[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille se nourrit sur le tremble, parfois aussi sur les bouleaux et le saule marsault.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Chrysalide</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Hiverne dans un cocon sous les écorces ou dans du bois en décomposition.
 </t>
@@ -642,9 +662,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espèce paléarctique, répandue dans toute l'Europe, de l'Espagne centrale à l'Asie jusqu'au Japon.En France métropolitaine, elle réside dans la partie nord, le Centre, les Alpes, une partie des Pyrénées, l'Ouest (Vendée, Aquitaine) [3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce paléarctique, répandue dans toute l'Europe, de l'Espagne centrale à l'Asie jusqu'au Japon.En France métropolitaine, elle réside dans la partie nord, le Centre, les Alpes, une partie des Pyrénées, l'Ouest (Vendée, Aquitaine) .
 </t>
         </is>
       </c>
@@ -675,8 +697,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol
-Papillon univoltin, l'Illégitime vole autour des chatons des trembles, des saules, de mars à mai en fonction de l'emplacement.
+          <t>Période de vol</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papillon univoltin, l'Illégitime vole autour des chatons des trembles, des saules, de mars à mai en fonction de l'emplacement.
 </t>
         </is>
       </c>
